--- a/doc/refs/order.xlsx
+++ b/doc/refs/order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>顾客名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>依次填写，不够行时，自行添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0400086061290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,6 +256,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,33 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,102 +571,116 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="45.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15"/>
+    <col min="3" max="3" width="9" style="12"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
